--- a/backend/temporary_files/servey_report.xlsx
+++ b/backend/temporary_files/servey_report.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2b823efc-0095-0fa0-0162-d1fa8db47b06" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="4b62d093-d9a7-01d1-079d-85f2818b7b5e" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="6d367a0d-b88e-4fb3-a968-212e6b7d8a4e" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="57b4b7a5-63e1-4ddc-b01f-6205d511cc10" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,171 +457,11 @@
           <t>Отлично! Давайте начнем. Скажите, кто заполняет заявку?</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Контактного лицо. Фамилия:</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Контактного лицо. Имя:</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Контактного лицо. Отчество:</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Подопечный. Фамилия:</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Подопечный. Имя:</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Подопечный. Отчество:</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Город проживания:</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Телефон (формат +7ХХХХХХХХХХ): </t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Email:</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Никнейм в телеграм (начина с символа @):</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Дата рождения подопечного (в формате ДД.ММ.ГГГГ):</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Подопечному больше 18 лет?</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Что нужно приобрести?</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Есть ли сертификат на ТСР?</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Есть ли открытые сборы в других фондах?</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Нужна ли консультационная помощь?</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Есть ли возможность продвигать сбор самостоятельно?</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Хотели бы получать информацию о правильном позиционировании?</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Укажите диагноз ребенка:</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Опишите текущее состояние здоровья и ограничения:</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Когда был поставлен диагноз?</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Прописано ли ТСР в медзаключении или ИПРА?</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Есть ли сроки, к которым особенно важно получить помощь (например, реабилитация, учеба)?</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Расскажите о семье: кто входит, чем занимаются родители/опекуны:</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Есть ли у ребенка братья/сестры, домашние питомцы?</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Какие традиции или важные совместные занятия есть у семьи?</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Чем увлекается ребенок, какие хобби или интересы?</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Какая мечта у ребенка?</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Почему нужна коляска/приставка/комплектующие?</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Что бы вы хотели сказать людям, которые прочитают историю вашего ребенка?</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Хотите добавить что-то от себя?</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Подтверждена ли запись на Госуслугах?</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>546c099f-a27a-4404-9b80-e00c66156929</t>
+          <t>9a9ec929-9550-446c-9ada-6c562f50a47b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -631,167 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Опекун</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Петр</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Петрович</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Сидоров</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Алексей</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Сергеевич</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Пермь</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>+79161616161</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>petrov@server.ru</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>@petrov</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>10.03.2011</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>ребенок</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Комплектующие</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Да, по СФР</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>диагноз</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>ограничения</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>в прошлом году</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Прописано ИПРА</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>новый год</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>работают</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>собака</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>быть вместе</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>рисует</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>быть счастливым</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>чтобы Жить</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>помогайте людям</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>не хочу</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Да</t>
+          <t>Мать/отец</t>
         </is>
       </c>
     </row>
@@ -806,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,154 +512,164 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Контактного лицо. Фамилия:</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Контактного лицо. Имя:</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Контактного лицо. Отчество:</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Подопечный. Фамилия:</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Подопечный. Имя:</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Подопечный. Отчество:</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Город проживания:</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t xml:space="preserve">Телефон (формат +7ХХХХХХХХХХ): </t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Email:</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Никнейм в телеграм (начина с символа @):</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Дата рождения подопечного (в формате ДД.ММ.ГГГГ):</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Подопечному больше 18 лет?</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Что нужно приобрести?</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Есть ли сертификат на ТСР?</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Есть ли открытые сборы в других фондах?</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Нужна ли консультационная помощь?</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Есть ли возможность продвигать сбор самостоятельно?</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Хотели бы получать информацию о правильном позиционировании?</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Укажите диагноз:</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Опишите текущее состояние здоровья и ограничения:</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Когда был поставлен диагноз?</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Прописано ли ТСР в медзаключении или ИПРА?</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Есть ли сроки, к которым особенно важно получить помощь?</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Расскажите о семье или близких, кто рядом и поддерживает:</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Кто вас вдохновляет или поддерживает?</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Чем увлекаетесь? Есть ли любимое хобби?</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Какие успехи или достижения особенно дороги?</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>Почему нужна новая коляска/приставка/комплектующее?</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Что бы вы хотели сказать людям, которые прочитают вашу историю?</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>Хотите добавить что-то от себя?</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>Подтверждена ли запись на Госуслугах?</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Для получения электронной подписи и подписания договора вам понадобится подтвержденная запись на госуслугах. Пожалуйста, позаботьтесь об этом заранее</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cfef69a0-5dd0-4fc9-9731-2d6b48e83fa4</t>
+          <t>4967f118-1a17-4951-b06b-f9f51ecaeb1a</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -989,79 +679,79 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Я и есть подопечный</t>
+          <t>Опекун</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Иванов</t>
+          <t>вапвыа</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>вапывк</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Иванович</t>
+          <t>авыпывп</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>вапыыв</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>+79998887755</t>
+          <t>ваыпы</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ivanov.server.ru</t>
+          <t>ваып</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ivanov</t>
+          <t>ваып</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>20.02.200</t>
+          <t>+79205441122</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>bkmz@maul.ru</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>@dsfasdf</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>01.12.2000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>взрослый</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Коляска</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Комплектующие</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Да, по ИПРА</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>Да</t>
@@ -1069,72 +759,82 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>диагноз такой то</t>
+          <t>Да, по СФР</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>такие то ограничения</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>год назад</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Прописано ТСР</t>
+          <t>dfgsdf</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>вчера</t>
+          <t>dfsg</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>все</t>
+          <t>dfgsdg</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>семья</t>
+          <t>Прописано ИПРА</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>кодю</t>
+          <t>dsgds</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>все</t>
+          <t>gfdsgds</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>потому что надо</t>
+          <t>dfsgfds</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>помогите, пожалуйста</t>
+          <t>fdsfg</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ничего</t>
+          <t>dfsfg</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>dfsgfdsg</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Хорошо</t>
+          <t>sdfgsdg</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>dsfgsdf</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Да</t>
         </is>
       </c>
     </row>
